--- a/структура базы.xlsx
+++ b/структура базы.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bf32de6d1489f537/Документы/София/Яндекс.Лицей/librarian/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\famil\OneDrive\Документы\София\Яндекс.Лицей\librarian\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{783EDC57-B70D-4DE8-A8B8-16BE28654C26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45958FA4-9DE7-410C-B536-2B64A566688F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{685AEFC4-EBCB-484C-ADAA-CC99E63B32A6}"/>
   </bookViews>
@@ -78,9 +78,6 @@
     <t>PhoneNumber</t>
   </si>
   <si>
-    <t>GivenBooks</t>
-  </si>
-  <si>
     <t>BookId</t>
   </si>
   <si>
@@ -94,6 +91,9 @@
   </si>
   <si>
     <t>ReturnDate</t>
+  </si>
+  <si>
+    <t>given_books</t>
   </si>
 </sst>
 </file>
@@ -513,7 +513,7 @@
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P6" sqref="P6"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -589,7 +589,7 @@
     <row r="9" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="10" spans="2:6" x14ac:dyDescent="0.3">
       <c r="E10" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.3">
@@ -599,27 +599,27 @@
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.3">
       <c r="E12" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.3">
       <c r="E13" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.3">
       <c r="E14" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.3">
       <c r="E15" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E16" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
